--- a/AALifeWeb2015/AALife.Web/Backup/AA生活记账导入模板.xlsx
+++ b/AALifeWeb2015/AALife.Web/Backup/AA生活记账导入模板.xlsx
@@ -523,14 +523,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="6" width="13.75" style="1"/>
+    <col min="1" max="2" width="13.75" style="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="6" width="13.75" style="1"/>
     <col min="7" max="8" width="13.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="13.75" style="7"/>
   </cols>
@@ -540,10 +540,10 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -563,8 +563,8 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
@@ -618,7 +618,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="E9" s="2"/>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
